--- a/public/Data Nasabah.xlsx
+++ b/public/Data Nasabah.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>No</t>
   </si>
@@ -32,34 +32,259 @@
     <t>Kode Akses</t>
   </si>
   <si>
-    <t>tes5</t>
-  </si>
-  <si>
-    <t>Jln. Jendral Sudirman 2</t>
-  </si>
-  <si>
-    <t>fikri1</t>
-  </si>
-  <si>
-    <t>podorejo2</t>
-  </si>
-  <si>
-    <t>tes1</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>aslam</t>
-  </si>
-  <si>
-    <t>pringsewu</t>
-  </si>
-  <si>
-    <t>fajar</t>
-  </si>
-  <si>
-    <t>unila</t>
+    <t>Cecep</t>
+  </si>
+  <si>
+    <t>FISIP</t>
+  </si>
+  <si>
+    <t>Anneke Despia</t>
+  </si>
+  <si>
+    <t>TPST</t>
+  </si>
+  <si>
+    <t>Dewi A. Iryani</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>Dewi Kantor</t>
+  </si>
+  <si>
+    <t>Kantor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofik Taufik Purwadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heru </t>
+  </si>
+  <si>
+    <t>Wiwit Kasmawati</t>
+  </si>
+  <si>
+    <t>FMIPA</t>
+  </si>
+  <si>
+    <t>SMKN 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hendra Satria Nugroho </t>
+  </si>
+  <si>
+    <t>ITERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwi Lestari </t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Ranja Valencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lusya Monica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharani Kencana </t>
+  </si>
+  <si>
+    <t>Rahma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rokhimah </t>
+  </si>
+  <si>
+    <t>FKIP</t>
+  </si>
+  <si>
+    <t>Ida Ropaida</t>
+  </si>
+  <si>
+    <t>BUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hari Setiawan </t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untung Wijaya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK </t>
+  </si>
+  <si>
+    <t>Putri Mekar A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nining Wahyuni </t>
+  </si>
+  <si>
+    <t>Dhiaulhaq Luqyana N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eria Zundi Rahmadani </t>
+  </si>
+  <si>
+    <t>Elok Budi Utami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kampung Baru </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wardatul Aini Putri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kemiling </t>
+  </si>
+  <si>
+    <t>Rifki Ananda Saputro</t>
+  </si>
+  <si>
+    <t>Umum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrian Setiawan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustom Hidayatullah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadi Prayitno </t>
+  </si>
+  <si>
+    <t>Ahmad Fahrezy</t>
+  </si>
+  <si>
+    <t>Zillia Chairani</t>
+  </si>
+  <si>
+    <t>Fathan Naufal A</t>
+  </si>
+  <si>
+    <t>Lenny Aditia P</t>
+  </si>
+  <si>
+    <t>Zulfa Afifah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fifi Cahyani Pramesti </t>
+  </si>
+  <si>
+    <t>I Gusti Komang Satria G.W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subkhan Erlangga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erlinda Puspitasari </t>
+  </si>
+  <si>
+    <t>Putri Afrianis</t>
+  </si>
+  <si>
+    <t>Rivaldi Silva Julian</t>
+  </si>
+  <si>
+    <t>Fandi Afrianto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Faris Azzahri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT </t>
+  </si>
+  <si>
+    <t>Zandra Sadira P</t>
+  </si>
+  <si>
+    <t>Anang Ma'ruf</t>
+  </si>
+  <si>
+    <t>Elysia Azhara Hendra</t>
+  </si>
+  <si>
+    <t>Dina Endang Ristanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qanita Wulandari </t>
+  </si>
+  <si>
+    <t>Ananda Emelia Yusuf</t>
+  </si>
+  <si>
+    <t>Zikrun Ardiantara</t>
+  </si>
+  <si>
+    <t>Ridho Solikhin</t>
+  </si>
+  <si>
+    <t>Annisa Dzuladyas Sofhia</t>
+  </si>
+  <si>
+    <t>Fakhruddin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melia Tri Anggraini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berta Putri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untari Fajar Lestari </t>
+  </si>
+  <si>
+    <t>Anisa Pramita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FKIP </t>
+  </si>
+  <si>
+    <t>Seilfi Rahmadani</t>
+  </si>
+  <si>
+    <t>Adelia Febrianti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adi Saputra </t>
+  </si>
+  <si>
+    <t>Salma Shakira</t>
+  </si>
+  <si>
+    <t>Chika Adha Zahira</t>
+  </si>
+  <si>
+    <t>Bathi Cahyadi</t>
+  </si>
+  <si>
+    <t>Maula Hudzahifah</t>
+  </si>
+  <si>
+    <t>Andri Kurnia Safitri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yunita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorif Adnan Nafis </t>
+  </si>
+  <si>
+    <t>fikri</t>
+  </si>
+  <si>
+    <t>Pringsewu</t>
   </si>
 </sst>
 </file>
@@ -399,7 +624,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>123123</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -437,14 +662,16 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2"/>
+      <c r="E2">
+        <v>23122</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>123123</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -452,14 +679,16 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3"/>
+      <c r="E3">
+        <v>23123</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -468,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>230836</v>
+        <v>23124</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -476,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8123123</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -485,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>230838</v>
+        <v>23125</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -493,16 +722,1070 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>23126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>230939</v>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>23127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>23128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>23129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>231210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>231211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>231212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>231213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>231214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>231215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>231216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>231217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>231218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>231219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>231220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>231221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>231222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>231223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>231224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25">
+        <v>231225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26">
+        <v>231226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <v>231227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>231228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>231229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>231230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>231231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>231232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>231233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>231234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>231235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>231236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>231237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>231238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>231239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>231240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>231241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>231242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43">
+        <v>231243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>231244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>231245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>231246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>231247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>231248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>231249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>231250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>231251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>231252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>231253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54">
+        <v>231254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55">
+        <v>231255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56">
+        <v>231256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57">
+        <v>231257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>231258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>231259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60">
+        <v>231260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>231261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>231262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63">
+        <v>231263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>231264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65">
+        <v>231265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66">
+        <v>231266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>231267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68">
+        <v>240370</v>
       </c>
     </row>
   </sheetData>
